--- a/AutomationTestLevel/core_local/ExecutionController.xlsx
+++ b/AutomationTestLevel/core_local/ExecutionController.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcsekaran\Downloads\Desh_AutomationFramework-main\Desh_AutomationFramework-main\AutomationFramework\AutomationTestLevel\core_local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\PycharmProjects\Framework_Selenium\AutomationTestLevel\core_local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AFB91E-2561-4880-B465-2F9FB84A02C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078B22CD-1F35-4979-B164-62C09851D10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sanity" sheetId="1" r:id="rId1"/>
@@ -375,18 +375,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -400,7 +400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>

--- a/AutomationTestLevel/core_local/ExecutionController.xlsx
+++ b/AutomationTestLevel/core_local/ExecutionController.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\PycharmProjects\Framework_Selenium\AutomationTestLevel\core_local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078B22CD-1F35-4979-B164-62C09851D10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED3E4A6-B536-4CFC-AC35-7B7C8AF641B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sanity" sheetId="1" r:id="rId1"/>
+    <sheet name="Appium" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>TestDescription</t>
   </si>
@@ -49,6 +50,15 @@
   </si>
   <si>
     <t>core_1</t>
+  </si>
+  <si>
+    <t>appium</t>
+  </si>
+  <si>
+    <t>General_store_validation</t>
+  </si>
+  <si>
+    <t>Appium</t>
   </si>
 </sst>
 </file>
@@ -375,7 +385,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,6 +430,52 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28687AE-309B-4F3E-A477-2B47F4BDE34B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="40.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{4bf6341c-8206-471e-ae70-4dd1374769f9}" enabled="1" method="Privileged" siteId="{e6cbec2f-2f23-43ca-82c4-51a7c9b71e7a}" contentBits="0" removed="0"/>
